--- a/biology/Mycologie/Tube_(champignon)/Tube_(champignon).xlsx
+++ b/biology/Mycologie/Tube_(champignon)/Tube_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tubes sont les petits tuyaux parallèles qui garnissent la surface inférieure du chapeau de certains champignons comme les bolets[1]. Il s'agit d'une forme que peut prendre l'hyménium, moins courante que les lames.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tubes sont les petits tuyaux parallèles qui garnissent la surface inférieure du chapeau de certains champignons comme les bolets. Il s'agit d'une forme que peut prendre l'hyménium, moins courante que les lames.
 </t>
         </is>
       </c>
